--- a/Nexial/artifact/data/SPO_TestData_Setup.data.xlsx
+++ b/Nexial/artifact/data/SPO_TestData_Setup.data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rs093308\Documents\Demo\Nexial\artifact\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0FE9A177-2237-4763-B584-AA72E6661164}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7695" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
@@ -88,15 +94,9 @@
     <t>mydb.url</t>
   </si>
   <si>
-    <t>jdbc:postgresql://localhost:5432/sample</t>
-  </si>
-  <si>
     <t>mydb.user</t>
   </si>
   <si>
-    <t>postgres</t>
-  </si>
-  <si>
     <t>mydb.password</t>
   </si>
   <si>
@@ -143,19 +143,19 @@
   </si>
   <si>
     <t>file1.csv, file2.csv,file3.csv,file4.csv</t>
+  </si>
+  <si>
+    <t>jdbc:postgresql://smartpo-pos-qa.c9qfyosg3dv8.us-west-2.rds.amazonaws.com:5432/pos</t>
+  </si>
+  <si>
+    <t>crypt:617ee1a1597929e8e59b91002e94ac9a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -182,363 +182,31 @@
     </font>
     <font>
       <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
       <color rgb="FFA9B7C6"/>
       <name val="Menlo-Regular"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <name val="Courier New"/>
+      <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10.5"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -548,266 +216,39 @@
     </border>
     <border>
       <left style="hair">
-        <color theme="6" tint="0.399945066682943"/>
+        <color theme="6" tint="0.39991454817346722"/>
       </left>
       <right style="hair">
-        <color theme="6" tint="0.399945066682943"/>
+        <color theme="6" tint="0.39991454817346722"/>
       </right>
       <top style="hair">
-        <color theme="6" tint="0.399945066682943"/>
+        <color theme="6" tint="0.39991454817346722"/>
       </top>
       <bottom style="hair">
-        <color theme="6" tint="0.399945066682943"/>
+        <color theme="6" tint="0.39991454817346722"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="hair">
+        <color theme="6" tint="0.39994506668294322"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="hair">
+        <color theme="6" tint="0.39994506668294322"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="hair">
+        <color theme="6" tint="0.39994506668294322"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="hair">
+        <color theme="6" tint="0.39994506668294322"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -821,7 +262,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -829,96 +269,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="9">
     <dxf>
       <font>
-        <b val="1"/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <color theme="4" tint="-0.249946592608417"/>
+        <u val="none"/>
+        <color theme="1"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.599963377788629"/>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color theme="4" tint="-0.249946592608417"/>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14996795556505"/>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -936,15 +324,78 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
-        <i val="1"/>
+        <b/>
+        <i/>
         <strike val="0"/>
         <u val="none"/>
         <color theme="0" tint="-0.499984740745262"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.0499893185216834"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14993743705557422"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -954,12 +405,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="#system"/>
@@ -1223,16 +677,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AAA202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -1244,198 +698,198 @@
     <col min="28" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23.1" customHeight="1" spans="1:703">
+    <row r="1" spans="1:703" ht="23.1" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="HA1" s="5"/>
-      <c r="AAA1" s="5"/>
-    </row>
-    <row r="2" ht="23.1" customHeight="1" spans="1:703">
+      <c r="HA1" s="4"/>
+      <c r="AAA1" s="4"/>
+    </row>
+    <row r="2" spans="1:703" ht="23.1" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="HA2" s="5"/>
-      <c r="AAA2" s="5"/>
-    </row>
-    <row r="3" ht="23.1" customHeight="1" spans="1:703">
+      <c r="HA2" s="4"/>
+      <c r="AAA2" s="4"/>
+    </row>
+    <row r="3" spans="1:703" ht="23.1" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="HA3" s="5"/>
-      <c r="AAA3" s="5"/>
-    </row>
-    <row r="4" ht="23.1" customHeight="1" spans="1:703">
+      <c r="HA3" s="4"/>
+      <c r="AAA3" s="4"/>
+    </row>
+    <row r="4" spans="1:703" ht="23.1" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="HA4" s="6"/>
-      <c r="AAA4" s="7"/>
-    </row>
-    <row r="5" ht="23.1" customHeight="1" spans="1:703">
+      <c r="HA4" s="5"/>
+      <c r="AAA4" s="6"/>
+    </row>
+    <row r="5" spans="1:703" ht="23.1" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="HA5" s="6"/>
-      <c r="AAA5" s="7"/>
-    </row>
-    <row r="6" ht="23.1" customHeight="1" spans="1:703">
+      <c r="HA5" s="5"/>
+      <c r="AAA5" s="6"/>
+    </row>
+    <row r="6" spans="1:703" ht="23.1" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="HA6" s="6"/>
-      <c r="AAA6" s="7"/>
-    </row>
-    <row r="7" ht="23.1" customHeight="1" spans="1:703">
+      <c r="HA6" s="5"/>
+      <c r="AAA6" s="6"/>
+    </row>
+    <row r="7" spans="1:703" ht="23.1" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="HA7" s="6"/>
-      <c r="AAA7" s="7"/>
-    </row>
-    <row r="8" ht="23.1" customHeight="1" spans="1:703">
+      <c r="HA7" s="5"/>
+      <c r="AAA7" s="6"/>
+    </row>
+    <row r="8" spans="1:703" ht="23.1" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="HA8" s="6"/>
-      <c r="AAA8" s="7"/>
-    </row>
-    <row r="9" ht="23.1" customHeight="1" spans="1:703">
+      <c r="HA8" s="5"/>
+      <c r="AAA8" s="6"/>
+    </row>
+    <row r="9" spans="1:703" ht="23.1" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="HA9" s="6"/>
-      <c r="AAA9" s="7"/>
-    </row>
-    <row r="10" ht="23.1" customHeight="1" spans="1:703">
+      <c r="HA9" s="5"/>
+      <c r="AAA9" s="6"/>
+    </row>
+    <row r="10" spans="1:703" ht="23.1" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="HA10" s="5"/>
+      <c r="AAA10" s="6"/>
+    </row>
+    <row r="11" spans="1:703" ht="23.1" customHeight="1">
+      <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="HA10" s="6"/>
-      <c r="AAA10" s="7"/>
-    </row>
-    <row r="11" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:703" ht="23.1" customHeight="1">
+      <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:703" ht="23.1" customHeight="1">
+      <c r="A13" s="1" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="12" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" ht="23.1" customHeight="1" spans="1:2">
+    <row r="14" spans="1:703" ht="23.1" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:703" ht="23.1" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:703" ht="23.1" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:2" ht="23.1" customHeight="1">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:2" ht="23.1" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:2" ht="23.1" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:2" ht="23.1" customHeight="1">
+      <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" ht="23.1" customHeight="1"/>
-    <row r="22" ht="23.1" customHeight="1"/>
-    <row r="23" ht="23.1" customHeight="1"/>
-    <row r="24" ht="23.1" customHeight="1"/>
-    <row r="25" ht="23.1" customHeight="1"/>
-    <row r="26" ht="23.1" customHeight="1"/>
-    <row r="27" ht="23.1" customHeight="1"/>
-    <row r="28" ht="23.1" customHeight="1"/>
-    <row r="29" ht="23.1" customHeight="1"/>
-    <row r="30" ht="23.1" customHeight="1"/>
-    <row r="31" ht="23.1" customHeight="1"/>
-    <row r="32" ht="23.1" customHeight="1"/>
+    <row r="21" spans="1:2" ht="23.1" customHeight="1"/>
+    <row r="22" spans="1:2" ht="23.1" customHeight="1"/>
+    <row r="23" spans="1:2" ht="23.1" customHeight="1"/>
+    <row r="24" spans="1:2" ht="23.1" customHeight="1"/>
+    <row r="25" spans="1:2" ht="23.1" customHeight="1"/>
+    <row r="26" spans="1:2" ht="23.1" customHeight="1"/>
+    <row r="27" spans="1:2" ht="23.1" customHeight="1"/>
+    <row r="28" spans="1:2" ht="23.1" customHeight="1"/>
+    <row r="29" spans="1:2" ht="23.1" customHeight="1"/>
+    <row r="30" spans="1:2" ht="23.1" customHeight="1"/>
+    <row r="31" spans="1:2" ht="23.1" customHeight="1"/>
+    <row r="32" spans="1:2" ht="23.1" customHeight="1"/>
     <row r="33" ht="23.1" customHeight="1"/>
     <row r="34" ht="23.1" customHeight="1"/>
     <row r="35" ht="23.1" customHeight="1"/>
@@ -1607,39 +1061,38 @@
     <row r="201" ht="23.1" customHeight="1"/>
     <row r="202" ht="23.1" customHeight="1"/>
   </sheetData>
-  <sheetProtection formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" deleteColumns="0" deleteRows="0"/>
-  <conditionalFormatting sqref="A$1:A$1048576">
-    <cfRule type="beginsWith" dxfId="0" priority="3" stopIfTrue="1" operator="equal" text="nexial.scope.">
+  <sheetProtection formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="beginsWith" dxfId="8" priority="5" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="4" stopIfTrue="1" operator="equal" text="nexial.">
+    <cfRule type="beginsWith" dxfId="7" priority="6" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="2" priority="5" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="7" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:B12">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="2">
-      <formula>LEN(TRIM(B11))&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="B1:B8 B13:B1048576">
+    <cfRule type="expression" dxfId="3" priority="8" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="sentry.scope."</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B9 B13:B1048576">
-    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="sentry.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="7">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="9">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B9 B11:B12">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="2">
+      <formula>LEN(TRIM(B9))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B18" r:id="rId1" display="null" tooltip="mailto:jbennett@ep.com"/>
+    <hyperlink ref="B18" r:id="rId1" tooltip="mailto:jbennett@ep.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>